--- a/data/trans_dic/PLURIPATOLOGIA-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,83</t>
+          <t>1,24; 4,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 7,76</t>
+          <t>2,51; 7,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 4,98</t>
+          <t>1,3; 4,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,02</t>
+          <t>3,75; 9,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,53; 18,13</t>
+          <t>9,57; 18,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,52; 8,38</t>
+          <t>4,41; 8,69</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 6,25</t>
+          <t>2,86; 6,31</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,96; 11,92</t>
+          <t>6,81; 11,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,25; 6,01</t>
+          <t>3,17; 6,16</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 5,19</t>
+          <t>1,87; 5,3</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,1; 7,58</t>
+          <t>3,12; 7,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,74</t>
+          <t>0,6; 2,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,11; 8,5</t>
+          <t>3,96; 8,62</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 14,64</t>
+          <t>9,06; 14,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,05; 12,31</t>
+          <t>7,12; 12,24</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,82; 8,26</t>
+          <t>3,9; 8,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,44; 16,66</t>
+          <t>11,48; 16,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 9,08</t>
+          <t>5,88; 9,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,79; 9,25</t>
+          <t>5,76; 8,99</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 5,0</t>
+          <t>2,62; 5,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,33; 11,86</t>
+          <t>8,43; 12,0</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,61</t>
+          <t>0,3; 2,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 5,25</t>
+          <t>1,51; 5,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 3,17</t>
+          <t>0,74; 3,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,99; 16,33</t>
+          <t>9,71; 15,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,78</t>
+          <t>1,18; 4,8</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,61; 11,88</t>
+          <t>5,69; 12,05</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,8; 9,8</t>
+          <t>3,88; 9,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,6; 20,82</t>
+          <t>14,58; 20,81</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,01; 3,14</t>
+          <t>0,93; 3,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,04; 7,72</t>
+          <t>4,02; 7,93</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,89</t>
+          <t>2,53; 5,7</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,08; 17,44</t>
+          <t>13,19; 17,4</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 4,85</t>
+          <t>1,22; 4,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,65; 5,98</t>
+          <t>2,8; 6,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,36; 7,8</t>
+          <t>3,4; 8,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,22; 15,04</t>
+          <t>8,11; 15,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,63; 6,67</t>
+          <t>2,53; 6,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,65; 15,13</t>
+          <t>9,3; 14,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,0; 17,64</t>
+          <t>9,95; 17,1</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>13,12; 19,24</t>
+          <t>12,85; 19,05</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,2; 4,92</t>
+          <t>2,29; 4,88</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,75</t>
+          <t>6,61; 9,56</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,52; 11,8</t>
+          <t>7,55; 11,91</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,64; 15,85</t>
+          <t>11,55; 15,91</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,04</t>
+          <t>0,85; 5,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,18; 13,0</t>
+          <t>5,34; 13,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 8,01</t>
+          <t>2,28; 7,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 13,48</t>
+          <t>6,86; 13,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,4; 9,66</t>
+          <t>2,37; 9,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,1; 23,4</t>
+          <t>12,86; 23,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,93; 15,56</t>
+          <t>7,11; 15,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,85; 19,99</t>
+          <t>11,55; 20,21</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,91; 6,06</t>
+          <t>2,06; 6,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10,21; 16,42</t>
+          <t>9,89; 16,6</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 10,09</t>
+          <t>5,13; 10,25</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>11,06; 16,51</t>
+          <t>10,62; 15,97</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1429,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,95</t>
+          <t>2,7; 8,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,48</t>
+          <t>2,0; 6,26</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,75; 20,94</t>
+          <t>13,95; 20,98</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 7,6</t>
+          <t>2,3; 7,53</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,38; 10,11</t>
+          <t>3,97; 9,9</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,78; 10,26</t>
+          <t>3,99; 10,61</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,72; 32,17</t>
+          <t>23,73; 32,22</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,18; 3,64</t>
+          <t>1,17; 4,02</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,95; 8,31</t>
+          <t>3,96; 7,93</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,3</t>
+          <t>3,51; 7,6</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>19,93; 25,3</t>
+          <t>20,14; 25,24</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,8</t>
+          <t>2,02; 4,81</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,98</t>
+          <t>2,01; 4,75</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,82</t>
+          <t>2,78; 5,89</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,4; 12,25</t>
+          <t>7,68; 12,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,08; 7,97</t>
+          <t>4,21; 7,72</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,42</t>
+          <t>7,65; 12,65</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,41; 13,16</t>
+          <t>8,3; 13,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,19; 58,29</t>
+          <t>22,31; 60,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,4; 5,7</t>
+          <t>3,43; 5,79</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,24; 8,22</t>
+          <t>5,31; 8,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,31; 9,2</t>
+          <t>6,28; 9,15</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,13; 41,78</t>
+          <t>16,08; 43,15</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,45; 9,08</t>
+          <t>5,18; 8,69</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,07</t>
+          <t>0,99; 3,06</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,05</t>
+          <t>2,28; 4,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,56; 7,91</t>
+          <t>4,59; 7,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,95; 11,38</t>
+          <t>7,01; 11,05</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,14; 10,16</t>
+          <t>6,21; 10,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,74; 13,25</t>
+          <t>8,81; 13,37</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,16; 16,05</t>
+          <t>11,03; 16,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,24</t>
+          <t>6,66; 9,34</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,02; 6,27</t>
+          <t>4,0; 6,16</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,99; 8,69</t>
+          <t>5,96; 8,76</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,3; 11,4</t>
+          <t>8,33; 11,44</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,04</t>
+          <t>2,82; 4,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,53</t>
+          <t>3,13; 4,51</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,88; 4,18</t>
+          <t>2,97; 4,19</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,87; 9,64</t>
+          <t>7,79; 9,71</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,89; 7,69</t>
+          <t>5,85; 7,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,94; 11,06</t>
+          <t>8,91; 11,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,71; 10,9</t>
+          <t>8,85; 10,86</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,35; 27,31</t>
+          <t>16,37; 28,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,65</t>
+          <t>4,56; 5,61</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6,29; 7,56</t>
+          <t>6,28; 7,55</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>6,13; 7,34</t>
+          <t>6,22; 7,41</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,65; 18,96</t>
+          <t>12,6; 19,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PLURIPATOLOGIA-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,24; 4,9</t>
+          <t>1,23; 4,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,51; 7,64</t>
+          <t>2,63; 8,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,75; 9,76</t>
+          <t>3,5; 9,94</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,57; 18,3</t>
+          <t>9,47; 17,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,31</t>
+          <t>2,84; 6,34</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,81; 11,73</t>
+          <t>6,87; 11,75</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,87; 5,3</t>
+          <t>1,75; 5,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,12; 7,53</t>
+          <t>3,14; 7,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 2,84</t>
+          <t>0,72; 2,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,06; 14,78</t>
+          <t>8,82; 14,54</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,12; 12,24</t>
+          <t>7,17; 12,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,14</t>
+          <t>4,02; 8,42</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,15</t>
+          <t>5,88; 9,33</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 8,99</t>
+          <t>5,59; 9,07</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,62; 5,0</t>
+          <t>2,61; 5,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,98</t>
+          <t>0,3; 2,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,51; 5,66</t>
+          <t>1,5; 5,84</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,16</t>
+          <t>0,74; 3,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 4,8</t>
+          <t>1,14; 4,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,69; 12,05</t>
+          <t>5,39; 11,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 9,76</t>
+          <t>3,64; 9,54</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,14</t>
+          <t>1,0; 3,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 7,93</t>
+          <t>4,16; 7,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,7</t>
+          <t>2,48; 5,77</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 4,9</t>
+          <t>1,2; 4,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,8; 6,13</t>
+          <t>2,86; 6,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,4; 8,15</t>
+          <t>3,39; 7,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,74</t>
+          <t>2,53; 6,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,3; 14,61</t>
+          <t>9,57; 14,73</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,95; 17,1</t>
+          <t>10,06; 17,7</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,88</t>
+          <t>2,23; 5,09</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,61; 9,56</t>
+          <t>6,71; 9,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,55; 11,91</t>
+          <t>7,35; 11,71</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,03</t>
+          <t>0,84; 4,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,34; 13,24</t>
+          <t>5,45; 13,39</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 7,96</t>
+          <t>2,27; 7,64</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 9,39</t>
+          <t>2,48; 9,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,86; 23,0</t>
+          <t>12,78; 22,98</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,11; 15,65</t>
+          <t>6,99; 15,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,06; 6,37</t>
+          <t>2,17; 5,98</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,89; 16,6</t>
+          <t>9,9; 16,68</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,13; 10,25</t>
+          <t>5,23; 10,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1429,12 +1429,12 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,01</t>
+          <t>2,7; 8,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,26</t>
+          <t>2,09; 6,54</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,53</t>
+          <t>2,3; 7,62</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,97; 9,9</t>
+          <t>4,06; 10,25</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,99; 10,61</t>
+          <t>4,03; 10,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,02</t>
+          <t>1,02; 3,74</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>3,96; 7,93</t>
+          <t>4,07; 8,04</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,6</t>
+          <t>3,51; 7,42</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,02; 4,81</t>
+          <t>2,05; 4,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 4,75</t>
+          <t>2,0; 4,92</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,89</t>
+          <t>2,88; 6,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,21; 7,72</t>
+          <t>4,3; 7,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,65; 12,65</t>
+          <t>7,75; 12,54</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,3; 13,29</t>
+          <t>8,37; 13,45</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 5,79</t>
+          <t>3,52; 5,81</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,31; 8,05</t>
+          <t>5,27; 8,21</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,28; 9,15</t>
+          <t>6,3; 9,46</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,18; 8,69</t>
+          <t>5,36; 8,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,99; 3,06</t>
+          <t>0,97; 3,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,28; 4,99</t>
+          <t>2,35; 4,94</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,05</t>
+          <t>6,9; 11,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,03</t>
+          <t>6,21; 10,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,37</t>
+          <t>8,77; 13,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,34</t>
+          <t>6,69; 9,43</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>4,0; 6,16</t>
+          <t>3,96; 6,26</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>5,96; 8,76</t>
+          <t>6,04; 8,83</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,15</t>
+          <t>2,84; 4,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,13; 4,51</t>
+          <t>3,15; 4,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,97; 4,19</t>
+          <t>2,94; 4,15</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,85; 7,54</t>
+          <t>5,83; 7,63</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,91; 11,01</t>
+          <t>8,93; 10,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,85; 10,86</t>
+          <t>8,69; 10,91</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,61</t>
+          <t>4,56; 5,66</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,55</t>
+          <t>6,31; 7,5</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>6,22; 7,41</t>
+          <t>6,17; 7,43</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/PLURIPATOLOGIA-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/PLURIPATOLOGIA-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,23; 4,9</t>
+          <t>1,23; 4,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,63; 8,02</t>
+          <t>2,69; 7,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,95</t>
+          <t>1,26; 4,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,5; 9,94</t>
+          <t>3,78; 10,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,47; 17,58</t>
+          <t>9,53; 18,13</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,41; 8,69</t>
+          <t>4,52; 8,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 6,34</t>
+          <t>2,79; 6,25</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,87; 11,75</t>
+          <t>6,96; 11,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,17; 6,16</t>
+          <t>3,25; 6,01</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,75; 5,43</t>
+          <t>1,64; 5,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,42</t>
+          <t>3,1; 7,58</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,72; 2,88</t>
+          <t>0,69; 2,74</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,96; 8,62</t>
+          <t>4,11; 8,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>8,82; 14,54</t>
+          <t>8,82; 14,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,17; 12,55</t>
+          <t>7,05; 12,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,02; 8,42</t>
+          <t>3,82; 8,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,48; 16,47</t>
+          <t>11,44; 16,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,88; 9,33</t>
+          <t>5,82; 9,08</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 9,07</t>
+          <t>5,79; 9,25</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,61; 5,11</t>
+          <t>2,59; 5,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>8,43; 12,0</t>
+          <t>8,33; 11,86</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,95</t>
+          <t>0,29; 2,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,5; 5,84</t>
+          <t>1,24; 5,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,74; 3,27</t>
+          <t>0,54; 3,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>9,71; 15,93</t>
+          <t>9,99; 16,33</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,51</t>
+          <t>1,17; 4,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,39; 11,76</t>
+          <t>5,61; 11,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 9,54</t>
+          <t>3,8; 9,8</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,58; 20,81</t>
+          <t>14,6; 20,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,0; 3,05</t>
+          <t>1,01; 3,14</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,82</t>
+          <t>4,04; 7,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,48; 5,77</t>
+          <t>2,61; 5,89</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,19; 17,4</t>
+          <t>13,08; 17,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,2; 4,95</t>
+          <t>1,21; 4,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,0</t>
+          <t>2,65; 5,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,39; 7,94</t>
+          <t>3,36; 7,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>8,11; 15,28</t>
+          <t>8,22; 15,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,69</t>
+          <t>2,63; 6,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>9,57; 14,73</t>
+          <t>9,65; 15,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,06; 17,7</t>
+          <t>10,0; 17,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>12,85; 19,05</t>
+          <t>13,12; 19,24</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,23; 5,09</t>
+          <t>2,2; 4,92</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,71; 9,75</t>
+          <t>6,61; 9,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>7,35; 11,71</t>
+          <t>7,52; 11,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>11,55; 15,91</t>
+          <t>11,64; 15,85</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,84; 4,81</t>
+          <t>0,84; 5,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,45; 13,39</t>
+          <t>5,18; 13,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,27; 7,64</t>
+          <t>2,3; 8,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,86; 13,6</t>
+          <t>6,93; 13,48</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,48; 9,22</t>
+          <t>2,4; 9,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>12,78; 22,98</t>
+          <t>13,1; 23,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,99; 15,26</t>
+          <t>6,93; 15,56</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,55; 20,21</t>
+          <t>10,85; 19,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,98</t>
+          <t>1,91; 6,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,9; 16,68</t>
+          <t>10,21; 16,42</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,4</t>
+          <t>5,29; 10,09</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,62; 15,97</t>
+          <t>11,06; 16,51</t>
         </is>
       </c>
     </row>
@@ -1429,57 +1429,57 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,7; 8,09</t>
+          <t>2,64; 7,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,09; 6,54</t>
+          <t>1,85; 6,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>13,95; 20,98</t>
+          <t>13,75; 20,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,3; 7,62</t>
+          <t>2,37; 7,6</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,06; 10,25</t>
+          <t>4,38; 10,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,03; 10,59</t>
+          <t>3,78; 10,26</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>23,73; 32,22</t>
+          <t>23,72; 32,17</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,02; 3,74</t>
+          <t>1,18; 3,64</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,07; 8,04</t>
+          <t>3,95; 8,31</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,51; 7,42</t>
+          <t>3,49; 7,3</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>20,14; 25,24</t>
+          <t>19,93; 25,3</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,92</t>
+          <t>2,02; 4,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,92</t>
+          <t>1,98; 4,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,28</t>
+          <t>2,79; 5,82</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,25</t>
+          <t>7,4; 12,25</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,3; 7,8</t>
+          <t>4,08; 7,97</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,54</t>
+          <t>7,7; 12,42</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,37; 13,45</t>
+          <t>8,41; 13,16</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,31; 60,29</t>
+          <t>22,19; 58,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,52; 5,81</t>
+          <t>3,4; 5,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>5,27; 8,21</t>
+          <t>5,24; 8,22</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,3; 9,46</t>
+          <t>6,31; 9,2</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>16,08; 43,15</t>
+          <t>16,13; 41,78</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>5,36; 8,92</t>
+          <t>5,45; 9,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 3,0</t>
+          <t>0,97; 3,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,35; 4,94</t>
+          <t>2,26; 5,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,59; 7,86</t>
+          <t>4,56; 7,91</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>6,9; 11,14</t>
+          <t>6,95; 11,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,21; 10,09</t>
+          <t>6,14; 10,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>8,77; 13,34</t>
+          <t>8,74; 13,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>11,03; 16,06</t>
+          <t>11,16; 16,05</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>6,69; 9,43</t>
+          <t>6,66; 9,24</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>3,96; 6,26</t>
+          <t>4,02; 6,27</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>6,04; 8,83</t>
+          <t>5,99; 8,69</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>8,33; 11,44</t>
+          <t>8,3; 11,4</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,09</t>
+          <t>2,82; 4,04</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>3,15; 4,52</t>
+          <t>3,13; 4,53</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>2,94; 4,15</t>
+          <t>2,88; 4,18</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>7,79; 9,71</t>
+          <t>7,87; 9,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>5,83; 7,63</t>
+          <t>5,89; 7,69</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,93; 10,99</t>
+          <t>8,94; 11,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,69; 10,91</t>
+          <t>8,71; 10,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>16,37; 28,23</t>
+          <t>16,35; 27,31</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,56; 5,66</t>
+          <t>4,56; 5,65</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6,31; 7,5</t>
+          <t>6,29; 7,56</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>6,17; 7,43</t>
+          <t>6,13; 7,34</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,6; 19,87</t>
+          <t>12,65; 18,96</t>
         </is>
       </c>
     </row>
